--- a/UML.xlsx
+++ b/UML.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6F9A6B-639E-470C-92A0-4B16091B5E7E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10F9738-9943-41CB-A1AC-1DF62D1BB267}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="138">
   <si>
     <t>OSDeveloper</t>
     <phoneticPr fontId="1"/>
@@ -850,6 +850,32 @@
     </rPh>
     <rPh sb="72" eb="74">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大まかな仕様：</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ヱンコン環境設定ファイルはUnicode(UTF-16)で保存する必要がある</t>
+    <rPh sb="5" eb="7">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2192,16 +2218,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>219073</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266698</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2216,7 +2242,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="904873" y="371474"/>
+          <a:off x="266698" y="581024"/>
           <a:ext cx="6248401" cy="5857876"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3471,7 +3497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCFA3EA-7D83-44FA-B4BD-26CBBF84A646}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3756,16 +3782,26 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F352D0-018A-43FF-83B0-85BA2ADE4EC9}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/UML.xlsx
+++ b/UML.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10F9738-9943-41CB-A1AC-1DF62D1BB267}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AF6FB5-2A99-4DD7-A602-98BAEC8F7A4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="139">
   <si>
     <t>OSDeveloper</t>
     <phoneticPr fontId="1"/>
@@ -92,10 +92,6 @@
   </si>
   <si>
     <t>File Explorer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Terminal/Output/Errors</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -303,28 +299,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Core内の構成、大体完成した物には「*」を付ける</t>
-    <rPh sb="4" eb="5">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ダイタイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
       <t>シュルイ</t>
@@ -876,6 +850,45 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Terminal/Output/Errors/Properties</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Core内の構成 「*」：大体完成したもの、「-」：開発中の物</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ダイタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>カイハツチュウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>** 必要になった時だけ作成する。</t>
+    <rPh sb="3" eb="5">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1446,7 +1459,7 @@
               <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>Error</a:t>
+            <a:t>Error**</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1594,7 +1607,7 @@
               <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>Editors</a:t>
+            <a:t>Editors-</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1668,7 +1681,7 @@
               <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>FileManagement</a:t>
+            <a:t>FileManagement-</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1816,7 +1829,7 @@
               <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>GraphicalUIs</a:t>
+            <a:t>GraphicalUIs-</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2042,7 +2055,7 @@
               <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>MiscUtils</a:t>
+            <a:t>MiscUtils**</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2116,7 +2129,7 @@
               <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>Globalization</a:t>
+            <a:t>Globalization**</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2190,7 +2203,7 @@
               <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>Workspace</a:t>
+            <a:t>Workspace-</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2929,84 +2942,84 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
         <v>76</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
         <v>77</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" t="s">
         <v>130</v>
-      </c>
-      <c r="C8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3045,239 +3058,239 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3305,14 +3318,14 @@
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="36" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:23" ht="36" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="36" customHeight="1">
@@ -3368,17 +3381,17 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="36" customHeight="1">
       <c r="F10" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="36" customHeight="1">
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3391,17 +3404,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="36" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="36" customHeight="1">
+    <row r="1" spans="1:23" ht="36" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>46</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="36" customHeight="1">
+      <c r="W6" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3428,61 +3446,61 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3512,251 +3530,251 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="E4" t="s">
         <v>92</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>93</v>
-      </c>
-      <c r="E4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" t="s">
         <v>93</v>
-      </c>
-      <c r="E5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
         <v>93</v>
-      </c>
-      <c r="E6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
         <v>93</v>
-      </c>
-      <c r="E7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="E8" t="s">
         <v>103</v>
       </c>
-      <c r="D8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" t="s">
-        <v>105</v>
-      </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" t="s">
-        <v>108</v>
-      </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" t="s">
-        <v>111</v>
-      </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" t="s">
-        <v>114</v>
-      </c>
       <c r="E11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" t="s">
-        <v>126</v>
-      </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3784,18 +3802,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F352D0-018A-43FF-83B0-85BA2ADE4EC9}">
   <dimension ref="B2:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/UML.xlsx
+++ b/UML.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AF6FB5-2A99-4DD7-A602-98BAEC8F7A4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC3518B-C737-41AD-BBFE-BDACE7AC07E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="138">
   <si>
     <t>OSDeveloper</t>
     <phoneticPr fontId="1"/>
@@ -440,22 +440,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C言語ででしか書けない処理を書く</t>
-    <rPh sb="1" eb="3">
-      <t>ゲンゴ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイコンリソースを埋め込む</t>
     <rPh sb="9" eb="10">
       <t>ウ</t>
@@ -858,7 +842,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Core内の構成 「*」：大体完成したもの、「-」：開発中の物</t>
+    <t>Core内の構成 「*」：大体完成した物、「-」：開発中の物、「**」：必要になった時だけ変更する物</t>
     <rPh sb="4" eb="5">
       <t>ナイ</t>
     </rPh>
@@ -871,24 +855,42 @@
     <rPh sb="15" eb="17">
       <t>カンセイ</t>
     </rPh>
-    <rPh sb="26" eb="29">
+    <rPh sb="19" eb="20">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
       <t>カイハツチュウ</t>
     </rPh>
-    <rPh sb="30" eb="31">
+    <rPh sb="29" eb="30">
       <t>モノ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>** 必要になった時だけ作成する。</t>
-    <rPh sb="3" eb="5">
+    <rPh sb="36" eb="38">
       <t>ヒツヨウ</t>
     </rPh>
-    <rPh sb="9" eb="10">
+    <rPh sb="42" eb="43">
       <t>トキ</t>
     </rPh>
-    <rPh sb="12" eb="14">
-      <t>サクセイ</t>
+    <rPh sb="45" eb="47">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C言語でしか書けない処理を書く</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2203,7 +2205,7 @@
               <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>Workspace-</a:t>
+            <a:t>Workspace</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2928,8 +2930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EC0DA4-4DEA-4C15-8801-8E3F91E91427}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2991,35 +2993,35 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" t="s">
         <v>128</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>129</v>
-      </c>
-      <c r="D8" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3075,7 +3077,7 @@
         <v>30</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>38</v>
@@ -3095,7 +3097,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>40</v>
@@ -3115,7 +3117,7 @@
         <v>32</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>39</v>
@@ -3135,7 +3137,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>41</v>
@@ -3155,7 +3157,7 @@
         <v>34</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>42</v>
@@ -3175,7 +3177,7 @@
         <v>37</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>42</v>
@@ -3195,7 +3197,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>42</v>
@@ -3215,7 +3217,7 @@
         <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>42</v>
@@ -3386,7 +3388,7 @@
     </row>
     <row r="10" spans="1:23" ht="36" customHeight="1">
       <c r="F10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="36" customHeight="1">
@@ -3404,22 +3406,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="36" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="36" customHeight="1">
+    <row r="1" spans="1:1" ht="36" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="36" customHeight="1">
-      <c r="W6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3435,7 +3432,7 @@
   <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3461,7 +3458,7 @@
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -3471,36 +3468,36 @@
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s">
         <v>126</v>
-      </c>
-      <c r="C14" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3530,251 +3527,251 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" t="s">
         <v>90</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>91</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>92</v>
-      </c>
-      <c r="F4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
         <v>91</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>92</v>
-      </c>
-      <c r="F5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" t="s">
         <v>91</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>92</v>
-      </c>
-      <c r="F6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
         <v>91</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>92</v>
-      </c>
-      <c r="F7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" t="s">
         <v>101</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>102</v>
       </c>
-      <c r="E8" t="s">
-        <v>103</v>
-      </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" t="s">
         <v>105</v>
       </c>
-      <c r="D9" t="s">
-        <v>106</v>
-      </c>
       <c r="E9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" t="s">
         <v>92</v>
-      </c>
-      <c r="F9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" t="s">
         <v>108</v>
       </c>
-      <c r="D10" t="s">
-        <v>109</v>
-      </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" t="s">
         <v>111</v>
       </c>
-      <c r="D11" t="s">
-        <v>112</v>
-      </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" t="s">
-        <v>114</v>
-      </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" t="s">
         <v>116</v>
       </c>
-      <c r="E13" t="s">
-        <v>117</v>
-      </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" t="s">
         <v>116</v>
       </c>
-      <c r="E14" t="s">
-        <v>117</v>
-      </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" t="s">
         <v>116</v>
       </c>
-      <c r="E15" t="s">
-        <v>117</v>
-      </c>
       <c r="F15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" t="s">
         <v>123</v>
       </c>
-      <c r="D16" t="s">
-        <v>124</v>
-      </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3810,10 +3807,10 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" t="s">
         <v>134</v>
-      </c>
-      <c r="F2" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/UML.xlsx
+++ b/UML.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC3518B-C737-41AD-BBFE-BDACE7AC07E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEA5761-D0D8-44C6-B494-4AD9AF343365}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Native!$B$12:$C$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">OLR!$B$3:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Yencon!$C$56:$F$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ツール!$B$2:$F$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">概要!$B$2:$D$2</definedName>
   </definedNames>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="208">
   <si>
     <t>OSDeveloper</t>
     <phoneticPr fontId="1"/>
@@ -891,6 +892,926 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細かい仕様：</t>
+    <rPh sb="0" eb="1">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角セミコロン(;)から始まる行はコメントとなりプログラムから参照されなくなる。</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ヱンコン環境設定ファイル」や「Yencon environment configuration file」は重言では無い。</t>
+    <rPh sb="5" eb="7">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ジュウゲン</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これは主に設定ファイル用です。また、INIファイル以上でCAPファイル以下の構造になっています。</t>
+    <rPh sb="3" eb="4">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Yenconは「</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>En</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">vironment </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Con</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>figuration」の略で日本語表記は「ヱンコン」。先頭のYには特別な意味はありません。</t>
+    </r>
+    <rPh sb="35" eb="36">
+      <t>リャク</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※CAPファイルとは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォーマットを指定する為のスキーマは用意されていません。</t>
+    <rPh sb="7" eb="9">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前は英数字とアンダースコアで先頭にも数字が利用できる。名前の後ろの「=」は半角等号。</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>トウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ての値をキーと呼び、「名前=値」の形式で書く。キーごとに必ず改行する。</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型名</t>
+    <rPh sb="0" eb="2">
+      <t>カタメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSDeveloperでは、文法の間違いによるエラーは曖昧。</t>
+    <rPh sb="14" eb="16">
+      <t>ブンポウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>アイマイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型指定子</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>シテイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NullOrEmpty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空の値を表す。</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値の一文字目(半角等号の後ろの文字)で型を指定する。以下の表では型指定子と呼ぶ。</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ヒトモジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ハンカクトウゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>シテイシ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Section</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StringKey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セクションを表す。半角波括弧内にキーを複数入れる事ができる。波括弧が終わるまでが範囲。</t>
+    <rPh sb="6" eb="7">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ナミカッコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ナミカッコ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列を表す。半角ダブルクオーテーションで囲まれた部分にエスケープされた文字を入れる。</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NumberKey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BooleanKey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真の論理値を表す。</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>偽の論理値を表す。</t>
+    <rPh sb="0" eb="1">
+      <t>ギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型識別子</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>シキベツシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x00h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x01h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x02h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x03h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x04h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x05h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エスケープ文字</t>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際の値</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\\</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\q</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\t</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(タブ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(改行, LF)</t>
+    <rPh sb="1" eb="3">
+      <t>カイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(改行, CR)</t>
+    <rPh sb="1" eb="3">
+      <t>カイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイナリファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト形式の拡張子は、純粋なヱンコンを利用する場合は「ycn」、設定ファイルとして利用する場合は「inix」、それ以外の場合は何かフォーマットが決められている。</t>
+    <rPh sb="7" eb="9">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジュンスイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイナリ形式の拡張子は、純粋なヱンコンを利用する場合は「bycn」、設定ファイルとして利用する場合は「cfg」、それ以外の場合は何かフォーマットが決められている。</t>
+    <rPh sb="7" eb="9">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジュンスイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(予約済み)は4バイトで現在は利用されていない。「FF FF FF FF」を入れる事を推奨する。</t>
+    <rPh sb="1" eb="4">
+      <t>ヨヤクズ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型については以下の表でまとめる。</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイナリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無し</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;シグネチャ&gt;はファイル識別用で常に「62 59 43 4E」。</t>
+    <rPh sb="12" eb="14">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;バージョン情報&gt;はファイルを読み込むパーサーの種類を表し、現在は「00 00 00」。&lt;キー名モード&gt;は1バイト。</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーは「&lt;型識別子&gt;&lt;名前の大きさ&gt;&lt;名前&gt;&lt;値&gt;」の様に表す。</t>
+    <rPh sb="5" eb="9">
+      <t>カタシキベツシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;型識別子&gt;は1バイトで型の種類を表す。</t>
+    <rPh sb="1" eb="5">
+      <t>カタシキベツシ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;名前の大きさ&gt;は、&lt;キー名モード&gt;の上位2ビットが「00」の場合8ビットで指定、「01」の場合は16ビットで指定、「10」の場合は32ビットで指定、「11」の場合は64ビットで指定。</t>
+    <rPh sb="1" eb="3">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイナリファイルは、「&lt;シグネチャ&gt;&lt;キー名モード&gt;&lt;バージョン情報&gt;&lt;予約済み&gt;&lt;キーの数&gt;[キー [キー [キー [...]]]]」から始まり&lt;キーの数&gt;だけキーを繰り返す。</t>
+    <rPh sb="21" eb="22">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;文字数 (32ビット)&gt;&lt;UTF-16文字列&gt;</t>
+    <rPh sb="1" eb="4">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値を表す。範囲は環境ごとに異なる。OSDeveloperでは64bit符号無し整数。</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;環境依存 (OSDeveloperでは64bit符号無し整数)&gt;</t>
+    <rPh sb="1" eb="3">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;名前&gt;は&lt;名前の大きさ&gt;に合わせて指定。英数字とアンダースコアが使える。エンコーディングは&lt;キー名モード&gt;の3ビット目が「0」の場合はUTF-16、「1」の場合はASCII。</t>
+    <rPh sb="1" eb="3">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;キーの数 (32ビット)&gt;[キー [キー [キー [...]]]]</t>
+    <rPh sb="4" eb="5">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;キーの数&gt;はルートセクションのキーの数。全体のキーの数では無い。32ビット。</t>
+    <rPh sb="4" eb="5">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -899,7 +1820,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -966,13 +1887,36 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -988,7 +1932,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1011,6 +1955,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2234,13 +3194,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>266698</xdr:colOff>
+      <xdr:colOff>266699</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3095626</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -2257,8 +3217,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="266698" y="581024"/>
-          <a:ext cx="6248401" cy="5857876"/>
+          <a:off x="266699" y="581024"/>
+          <a:ext cx="6000752" cy="5857876"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2930,8 +3890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EC0DA4-4DEA-4C15-8801-8E3F91E91427}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3797,26 +4757,334 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F352D0-018A-43FF-83B0-85BA2ADE4EC9}">
-  <dimension ref="B2:F2"/>
+  <dimension ref="B2:G70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="90" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>133</v>
       </c>
       <c r="F2" t="s">
         <v>134</v>
       </c>
     </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="C56" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="C57" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F57" t="s">
+        <v>153</v>
+      </c>
+      <c r="G57" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="C58" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F58" t="s">
+        <v>159</v>
+      </c>
+      <c r="G58" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="C59" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F59" t="s">
+        <v>160</v>
+      </c>
+      <c r="G59" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="C60" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F60" t="s">
+        <v>203</v>
+      </c>
+      <c r="G60" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="C61" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F61" t="s">
+        <v>166</v>
+      </c>
+      <c r="G61" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="C62" t="s">
+        <v>163</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F62" t="s">
+        <v>167</v>
+      </c>
+      <c r="G62" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="C64" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4">
+      <c r="C66" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4">
+      <c r="C67" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="C68" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4">
+      <c r="C69" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4">
+      <c r="C70" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="G32" r:id="rId1" location="yeck_cap" xr:uid="{A5B8E4B9-1579-4388-9A83-2D357E8F1472}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/UML.xlsx
+++ b/UML.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEA5761-D0D8-44C6-B494-4AD9AF343365}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A944A5DA-27B1-4AA6-93A6-1C48CDD20DC9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1583,112 +1583,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;バージョン情報&gt;はファイルを読み込むパーサーの種類を表し、現在は「00 00 00」。&lt;キー名モード&gt;は1バイト。</t>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>アラワ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キーは「&lt;型識別子&gt;&lt;名前の大きさ&gt;&lt;名前&gt;&lt;値&gt;」の様に表す。</t>
-    <rPh sb="5" eb="9">
-      <t>カタシキベツシ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>アラワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;型識別子&gt;は1バイトで型の種類を表す。</t>
-    <rPh sb="1" eb="5">
-      <t>カタシキベツシ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>アラワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;名前の大きさ&gt;は、&lt;キー名モード&gt;の上位2ビットが「00」の場合8ビットで指定、「01」の場合は16ビットで指定、「10」の場合は32ビットで指定、「11」の場合は64ビットで指定。</t>
-    <rPh sb="1" eb="3">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジョウイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>バイナリファイルは、「&lt;シグネチャ&gt;&lt;キー名モード&gt;&lt;バージョン情報&gt;&lt;予約済み&gt;&lt;キーの数&gt;[キー [キー [キー [...]]]]」から始まり&lt;キーの数&gt;だけキーを繰り返す。</t>
     <rPh sb="21" eb="22">
       <t>メイ</t>
@@ -1812,6 +1706,115 @@
     </rPh>
     <rPh sb="30" eb="31">
       <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;バージョン情報&gt;はファイルを読み込むパーサーの種類(つまりフォーマットバージョン)を表し、現在は「00 00 00」。&lt;キー名モード&gt;は1バイト。</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;型識別子&gt;は1バイトで型の種類を表す。[値]は型に合わせて指定。</t>
+    <rPh sb="1" eb="5">
+      <t>カタシキベツシ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーは「&lt;名前の大きさ&gt;&lt;名前&gt;&lt;型識別子&gt;[値]」の様に表す。</t>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;名前の大きさ&gt;は、&lt;キー名モード&gt;の上位2ビットが「00」の場合8ビットで指定、「01」の場合は16ビットで指定、「10」の場合は32ビットで指定。</t>
+    <rPh sb="1" eb="3">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>シテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4759,8 +4762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F352D0-018A-43FF-83B0-85BA2ADE4EC9}">
   <dimension ref="B2:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4855,7 +4858,7 @@
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="19" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="2:2">
@@ -4865,7 +4868,7 @@
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="19" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="2:2">
@@ -4875,22 +4878,22 @@
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="19" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="19" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="19" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="2:7">
@@ -4951,7 +4954,7 @@
         <v>159</v>
       </c>
       <c r="G58" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="2:7">
@@ -4968,7 +4971,7 @@
         <v>160</v>
       </c>
       <c r="G59" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="2:7">
@@ -4982,10 +4985,10 @@
         <v>172</v>
       </c>
       <c r="F60" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G60" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="2:7">

--- a/UML.xlsx
+++ b/UML.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A944A5DA-27B1-4AA6-93A6-1C48CDD20DC9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B2B764-4CE1-4D0B-8C31-9C1FE5708B13}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4762,8 +4762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F352D0-018A-43FF-83B0-85BA2ADE4EC9}">
   <dimension ref="B2:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/UML.xlsx
+++ b/UML.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B2B764-4CE1-4D0B-8C31-9C1FE5708B13}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C27E01-72CB-4833-827C-4F6253C19ACF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="3" r:id="rId1"/>
@@ -4282,8 +4282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73756F0F-B83F-454D-BF45-B3B602AC99A0}">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="36" customHeight="1"/>
@@ -4762,8 +4762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F352D0-018A-43FF-83B0-85BA2ADE4EC9}">
   <dimension ref="B2:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/UML.xlsx
+++ b/UML.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C27E01-72CB-4833-827C-4F6253C19ACF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F607D55-F888-4937-8EDB-9938A00354BB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Native!$B$12:$C$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">OLR!$B$3:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">OLR!$B$4:$F$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Yencon!$C$56:$F$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ツール!$B$2:$F$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">概要!$B$2:$D$2</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="209">
   <si>
     <t>OSDeveloper</t>
     <phoneticPr fontId="1"/>
@@ -653,10 +653,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0.15.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Alexandre Mutel</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -678,14 +674,6 @@
   </si>
   <si>
     <t>MarkdownSharp</t>
-  </si>
-  <si>
-    <t>1.13.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Jeff Atwood, Milan Negovan, John Gruber</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>marked.js</t>
@@ -774,10 +762,6 @@
   </si>
   <si>
     <t>OSDeveloper.Core.Settings.YenconTool.exe, yencon.cmd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4.5.9</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1816,6 +1800,50 @@
     <rPh sb="72" eb="74">
       <t>シテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確か既に読み込まれていなければ拡張機能からこれらのライブラリを呼び出せない？</t>
+    <rPh sb="0" eb="1">
+      <t>タシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.15.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.0.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.5.11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jeff Atwood, Milan Negovan, John Gruber, Nick Craver</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3897,7 +3925,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="2" max="2" width="37.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="103.75" bestFit="1" customWidth="1"/>
@@ -3978,13 +4006,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4011,7 +4039,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.25" bestFit="1" customWidth="1"/>
@@ -4060,7 +4088,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>40</v>
@@ -4080,7 +4108,7 @@
         <v>32</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>39</v>
@@ -4100,7 +4128,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>41</v>
@@ -4120,7 +4148,7 @@
         <v>34</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>42</v>
@@ -4140,7 +4168,7 @@
         <v>37</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>42</v>
@@ -4160,7 +4188,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>42</v>
@@ -4180,7 +4208,7 @@
         <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>42</v>
@@ -4282,7 +4310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73756F0F-B83F-454D-BF45-B3B602AC99A0}">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -4351,7 +4379,7 @@
     </row>
     <row r="10" spans="1:23" ht="36" customHeight="1">
       <c r="F10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="36" customHeight="1">
@@ -4379,7 +4407,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="36" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4398,7 +4426,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="2" max="2" width="65.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
@@ -4431,7 +4459,7 @@
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="2:3">
@@ -4452,15 +4480,15 @@
         <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4473,72 +4501,60 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCFA3EA-7D83-44FA-B4BD-26CBBF84A646}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="2" max="2" width="42.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
         <v>90</v>
@@ -4552,10 +4568,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
         <v>90</v>
@@ -4569,10 +4585,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
         <v>90</v>
@@ -4586,16 +4602,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
         <v>92</v>
@@ -4603,16 +4619,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F9" t="s">
         <v>92</v>
@@ -4620,16 +4636,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
         <v>92</v>
@@ -4637,16 +4653,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F11" t="s">
         <v>92</v>
@@ -4654,16 +4670,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
         <v>114</v>
-      </c>
-      <c r="D12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" t="s">
-        <v>117</v>
       </c>
       <c r="F12" t="s">
         <v>92</v>
@@ -4671,16 +4687,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F13" t="s">
         <v>92</v>
@@ -4688,16 +4704,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>130</v>
+        <v>207</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
         <v>92</v>
@@ -4705,16 +4721,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>130</v>
+        <v>207</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F15" t="s">
         <v>92</v>
@@ -4722,23 +4738,40 @@
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>122</v>
+        <v>207</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
       </c>
     </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B3:F3" xr:uid="{FF12F012-5F6D-4CFE-B4C9-A6C2A7E54BD2}"/>
+  <autoFilter ref="B4:F4" xr:uid="{FF12F012-5F6D-4CFE-B4C9-A6C2A7E54BD2}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -4751,7 +4784,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4766,7 +4799,7 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
@@ -4777,308 +4810,308 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="19" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="19" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="19" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="19" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="19" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="19" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="2:7">
       <c r="C56" s="13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="2:7">
       <c r="C57" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F57" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G57" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="2:7">
       <c r="C58" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F58" t="s">
         <v>155</v>
       </c>
-      <c r="D58" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F58" t="s">
-        <v>159</v>
-      </c>
       <c r="G58" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="2:7">
       <c r="C59" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F59" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G59" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="2:7">
       <c r="C60" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F60" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G60" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="2:7">
       <c r="C61" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F61" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G61" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="2:7">
       <c r="C62" t="s">
+        <v>159</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F62" t="s">
         <v>163</v>
       </c>
-      <c r="D62" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="F62" t="s">
-        <v>167</v>
-      </c>
       <c r="G62" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="2:7">
       <c r="C64" s="18" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="3:4">
       <c r="C65" s="15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="3:4">
       <c r="C66" s="16" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="3:4">
       <c r="C67" s="16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="3:4">
       <c r="C68" s="16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="3:4">
       <c r="C69" s="16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="3:4">
       <c r="C70" s="16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/UML.xlsx
+++ b/UML.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F607D55-F888-4937-8EDB-9938A00354BB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2FB205-C8B4-4C61-996B-1DF40AECDD0D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/UML.xlsx
+++ b/UML.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2FB205-C8B4-4C61-996B-1DF40AECDD0D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC47E34-1357-427C-B0AC-E9EB775F3588}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="3" r:id="rId1"/>
@@ -3925,7 +3925,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="37.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="103.75" bestFit="1" customWidth="1"/>
@@ -4039,7 +4039,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.25" bestFit="1" customWidth="1"/>
@@ -4288,7 +4288,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:G2" xr:uid="{B3A0E644-BA99-48A4-A43F-092ECEEA243A}"/>
-  <sortState ref="A3:F18">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F18">
     <sortCondition ref="B10"/>
   </sortState>
   <phoneticPr fontId="1"/>
@@ -4426,7 +4426,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="65.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
@@ -4503,11 +4503,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCFA3EA-7D83-44FA-B4BD-26CBBF84A646}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="42.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.25" style="9" bestFit="1" customWidth="1"/>
@@ -4784,7 +4784,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4795,11 +4795,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F352D0-018A-43FF-83B0-85BA2ADE4EC9}">
   <dimension ref="B2:G70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
